--- a/trunk/CSOF5104 Mejoramiento de Procesos de Software/Taller 2/cm2_10-losalpes-Ingenium.xlsx
+++ b/trunk/CSOF5104 Mejoramiento de Procesos de Software/Taller 2/cm2_10-losalpes-Ingenium.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Evaluación" sheetId="45" r:id="rId8"/>
     <sheet name="Evolución" sheetId="28" state="hidden" r:id="rId9"/>
     <sheet name="Datos" sheetId="27" state="hidden" r:id="rId10"/>
-    <sheet name="Module1" sheetId="44" state="veryHidden" r:id=""/>
+    <sheet name="Module1" sheetId="44" state="veryHidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="1">PP!$A$16</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="129">
   <si>
     <t># NA</t>
   </si>
@@ -440,17 +440,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="210" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="9">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -671,10 +663,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="210" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -707,9 +699,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,8 +714,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,18 +727,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +803,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.842936969760803E-2"/>
-          <c:y val="2.1141649048625793E-2"/>
-          <c:w val="0.88586432727847231"/>
-          <c:h val="0.73572938689217759"/>
+          <c:x val="9.8429369697608057E-2"/>
+          <c:y val="2.11416490486258E-2"/>
+          <c:w val="0.88586432727847242"/>
+          <c:h val="0.73572938689217782"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -870,7 +862,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.12</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -895,12 +887,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="74100736"/>
-        <c:axId val="74103040"/>
+        <c:axId val="125186816"/>
+        <c:axId val="125189120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="74100736"/>
+        <c:axId val="125186816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +925,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.45235625222730502"/>
-              <c:y val="0.90274841437632136"/>
+              <c:y val="0.90274841437632158"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -970,7 +962,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74103040"/>
+        <c:crossAx val="125189120"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -979,7 +971,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74103040"/>
+        <c:axId val="125189120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1022,8 +1014,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="9.6335127789148295E-2"/>
-              <c:y val="0.32346723044397463"/>
+              <c:x val="9.6335127789148281E-2"/>
+              <c:y val="0.32346723044397468"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -1060,7 +1052,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74100736"/>
+        <c:crossAx val="125186816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1106,7 +1098,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0" footer="0"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0" footer="0"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1142,8 +1134,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38055842812823165"/>
-          <c:y val="2.0338983050847456E-2"/>
+          <c:x val="0.38055842812823171"/>
+          <c:y val="2.0338983050847449E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1161,7 +1153,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.22233712512926576"/>
           <c:y val="0.18135593220338983"/>
-          <c:w val="0.44260599793174765"/>
+          <c:w val="0.44260599793174771"/>
           <c:h val="0.72542372881355932"/>
         </c:manualLayout>
       </c:layout>
@@ -1610,11 +1602,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="59214080"/>
-        <c:axId val="59224064"/>
+        <c:axId val="124996608"/>
+        <c:axId val="125018880"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="59214080"/>
+        <c:axId val="124996608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,13 +1631,13 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59224064"/>
+        <c:crossAx val="125018880"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59224064"/>
+        <c:axId val="125018880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1679,11 +1671,11 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59214080"/>
+        <c:crossAx val="124996608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
-        <c:minorUnit val="0.02"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1698,10 +1690,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88934850051706305"/>
-          <c:y val="0.43728813559322033"/>
-          <c:w val="0.10651499482936919"/>
-          <c:h val="0.21525423728813559"/>
+          <c:x val="0.88934850051706293"/>
+          <c:y val="0.43728813559322038"/>
+          <c:w val="0.10651499482936917"/>
+          <c:h val="0.21525423728813561"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2194,7 +2186,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4147,15 +4139,15 @@
       </c>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="E16" s="25" t="s">
         <v>128</v>
@@ -4166,8 +4158,8 @@
       <c r="G16" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="25">
-        <v>4</v>
+      <c r="H16" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>128</v>
@@ -4295,15 +4287,15 @@
       </c>
       <c r="B17" s="16">
         <f>IF(COUNTIF(E17:AI17,"NA")&gt;0,COUNTIF(E17:AI17,"NA"),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IF(COUNTIF(E17:AI17,"?")&gt;0,COUNTIF(E17:AI17,"?"),"")</f>
         <v/>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="5" t="str">
         <f>IF(AND((COUNTIF(E17:AI17,"=0")=0),(SUM(E17:AI17)=0)),"",ROUND(AVERAGE(E17:AI17),2))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E17" s="25" t="s">
         <v>128</v>
@@ -4314,8 +4306,8 @@
       <c r="G17" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="25">
-        <v>2</v>
+      <c r="H17" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>128</v>
@@ -4443,15 +4435,15 @@
       </c>
       <c r="B18" s="16">
         <f>IF(COUNTIF(E18:AI18,"NA")&gt;0,COUNTIF(E18:AI18,"NA"),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IF(COUNTIF(E18:AI18,"?")&gt;0,COUNTIF(E18:AI18,"?"),"")</f>
         <v/>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="30" t="str">
         <f>IF(AND((COUNTIF(E18:AI18,"=0")=0),(SUM(E18:AI18)=0)),"",ROUND(AVERAGE(E18:AI18),2))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="E18" s="25" t="s">
         <v>128</v>
@@ -4462,8 +4454,8 @@
       <c r="G18" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="25">
-        <v>2</v>
+      <c r="H18" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>128</v>
@@ -4587,13 +4579,13 @@
     </row>
     <row r="19" spans="1:105" ht="13.5" thickBot="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="31">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D16),2)),"",ROUND(AVERAGE(D2:D16),2))</f>
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
@@ -5936,6 +5928,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
@@ -9170,10 +9174,10 @@
     </row>
     <row r="28" spans="1:105" ht="13.5" thickBot="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="31" t="str">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D25),2)),"",ROUND(AVERAGE(D2:D25),2))</f>
         <v/>
@@ -13184,10 +13188,10 @@
     </row>
     <row r="24" spans="1:105" ht="13.5" thickBot="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="31" t="str">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D21),2)),"",ROUND(AVERAGE(D2:D21),2))</f>
         <v/>
@@ -16862,10 +16866,10 @@
     </row>
     <row r="21" spans="1:105" ht="13.5" thickBot="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="31" t="str">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D18),2)),"",ROUND(AVERAGE(D2:D18),2))</f>
         <v/>
@@ -22973,10 +22977,10 @@
     </row>
     <row r="22" spans="1:105" ht="13.5" thickBot="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="31" t="str">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D19),2)),"",ROUND(AVERAGE(D2:D19),2))</f>
         <v/>
@@ -26343,10 +26347,10 @@
     </row>
     <row r="18" spans="1:105" ht="13.5" thickBot="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="31" t="str">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D15),2)),"",ROUND(AVERAGE(D2:D15),2))</f>
         <v/>
@@ -29449,7 +29453,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -31676,10 +31680,10 @@
       <c r="G18" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="41" t="s">
         <v>128</v>
       </c>
       <c r="J18" s="25" t="s">
@@ -31824,10 +31828,10 @@
       <c r="G19" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="41" t="s">
         <v>128</v>
       </c>
       <c r="J19" s="25" t="s">
@@ -32067,10 +32071,10 @@
     </row>
     <row r="21" spans="1:105" ht="13.5" thickBot="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="31">
         <f>IF(ISERROR(ROUND(AVERAGE(D2:D18),2)),"",ROUND(AVERAGE(D2:D18),2))</f>
         <v>4.1399999999999997</v>
@@ -33439,7 +33443,7 @@
   </sheetPr>
   <dimension ref="B6:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -33451,7 +33455,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:4" ht="15.75">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -33459,11 +33463,11 @@
       </c>
       <c r="D6" s="35">
         <f>REQM!D19</f>
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75">
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="34" t="s">
         <v>69</v>
       </c>
@@ -33473,7 +33477,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75">
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="34" t="s">
         <v>70</v>
       </c>
@@ -33483,7 +33487,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="34" t="s">
         <v>71</v>
       </c>
@@ -33493,7 +33497,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75">
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="34" t="s">
         <v>72</v>
       </c>
@@ -33503,7 +33507,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75">
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="34" t="s">
         <v>73</v>
       </c>
@@ -33513,7 +33517,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75">
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="34" t="s">
         <v>74</v>
       </c>
@@ -33527,7 +33531,7 @@
   <mergeCells count="1">
     <mergeCell ref="B6:B12"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
